--- a/data/trans_dic/P31_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P31_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>50,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>46,39%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35,47%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,97; 49,43</t>
+          <t>9,24; 38,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,42; 39,49</t>
+          <t>12,41; 44,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 54,41</t>
+          <t>27,12; 76,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,29; 44,22</t>
+          <t>5,38; 33,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,45; 47,43</t>
+          <t>26,53; 52,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,72; 44,55</t>
+          <t>27,5; 55,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,49; 42,9</t>
+          <t>27,64; 57,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,67; 40,57</t>
+          <t>35,0; 66,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,47; 44,71</t>
+          <t>19,93; 41,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21,97; 44,62</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34,13; 63,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21,92; 50,86</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>34,27%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,23%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,45; 41,92</t>
+          <t>27,91; 48,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,49; 38,39</t>
+          <t>25,93; 46,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,08; 44,06</t>
+          <t>23,57; 40,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,23; 37,84</t>
+          <t>16,06; 29,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,92; 49,5</t>
+          <t>25,22; 39,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,34; 47,27</t>
+          <t>37,12; 52,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,62; 37,98</t>
+          <t>29,47; 44,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,78; 41,89</t>
+          <t>31,54; 46,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,68; 43,23</t>
+          <t>28,82; 41,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33,78; 45,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28,27; 40,03</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24,71; 35,43</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>31,55%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34,23%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34,87%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35,28%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,32; 36,52</t>
+          <t>22,01; 38,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,27; 36,99</t>
+          <t>21,31; 37,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,33; 45,05</t>
+          <t>26,93; 44,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,03; 38,1</t>
+          <t>23,6; 42,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,68; 45,02</t>
+          <t>26,8; 41,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,63; 44,14</t>
+          <t>31,39; 46,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,48; 35,61</t>
+          <t>27,74; 42,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,77; 39,44</t>
+          <t>29,82; 45,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,92; 41,91</t>
+          <t>25,93; 36,86</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28,76; 39,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29,3; 40,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>29,83; 41,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,34; 37,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,17; 35,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,43; 41,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,07; 36,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,72; 44,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,68; 42,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,05; 35,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,9; 38,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,06; 40,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31,64%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30,88%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35,15%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24,72%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41,71%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37,03%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40,82%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32,73%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36,11%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26,03; 39,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25,16; 37,57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28,84; 43,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19,57; 30,23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28,78; 38,36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36,58; 47,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32,21; 42,28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35,83; 47,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29,15; 36,75</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32,46; 40,52</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32,39; 40,7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28,89; 37,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,63%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29011</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27997</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56987</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32256</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>55061</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>44072</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>52735</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>105541</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>84072</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>72068</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>109721</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>137797</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11909; 49275</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12778; 45853</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30955; 87765</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9562; 58932</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37797; 75458</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29872; 59922</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33828; 70178</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73786; 139898</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54093; 111454</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46474; 94386</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>80727; 151163</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>85159; 197589</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>154629</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>125721</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>125037</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>111842</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>150874</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>169868</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>137849</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>187493</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>305502</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>295590</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>262886</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>299336</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>119130; 205530</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>97557; 173828</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>94146; 159949</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>81406; 150928</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>117125; 182345</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>140620; 198445</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>110585; 166195</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>152357; 225971</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>256925; 369947</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>255056; 342669</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>218980; 310128</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>244663; 350779</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>97502</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>81472</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>95285</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>111240</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>142664</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>133147</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>114941</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>147872</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>240167</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>214620</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>210226</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>259111</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>73271; 127159</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60161; 104740</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>74165; 123139</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82165; 147676</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>114832; 175912</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>108180; 161681</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>90830; 139207</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>115199; 175983</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>197381; 280634</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>180344; 249992</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>176597; 245525</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>219117; 303341</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>281142</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>235190</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>277309</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>255338</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>348599</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>347087</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>305525</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>440906</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>629741</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>582277</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>582834</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>696244</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>231283; 346852</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>191621; 286133</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>227587; 340705</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>202160; 312213</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>298012; 397173</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>304353; 391635</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>265751; 348808</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>387015; 510024</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>560935; 707118</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>517327; 645696</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>522760; 656841</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>610519; 787414</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
